--- a/backend/db/data/participante.xlsx
+++ b/backend/db/data/participante.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simke\Documents\GITHUB\Proyecto-CAI\backend\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC9A7F-A76A-4967-B9FD-B6FA4549AA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AA1215-1237-4F54-9E17-16E63B94044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2970" windowWidth="25620" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3135" windowWidth="25620" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contactos" sheetId="1" r:id="rId1"/>
@@ -2178,16 +2178,17 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="F58" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="15" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="13" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
     <col min="16" max="16" width="23.375" customWidth="1"/>
     <col min="17" max="32" width="10.375" customWidth="1"/>
   </cols>
@@ -2209,10 +2210,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -2230,7 +2231,6 @@
         <v>11</v>
       </c>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2266,15 +2266,15 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5">
+        <v>23456</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="5">
-        <v>23456</v>
       </c>
       <c r="H2" s="3" t="str">
         <f t="shared" ref="H2:H123" ca="1" si="0">CHOOSE(RANDBETWEEN(1,2),"Online","Prescensial")</f>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
@@ -2307,11 +2307,11 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5">
+        <v>24089</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="5">
-        <v>24089</v>
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2348,15 +2348,15 @@
       <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5">
+        <v>25404</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="5">
-        <v>25404</v>
-      </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>17</v>
@@ -2386,11 +2386,11 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5">
+        <v>23946</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="5">
-        <v>23946</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2427,15 +2427,15 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5">
+        <v>23666</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="5">
-        <v>23666</v>
-      </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>48</v>
@@ -2468,11 +2468,11 @@
       <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5">
+        <v>21505</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" s="5">
-        <v>21505</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2509,11 +2509,11 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5">
+        <v>24551</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="5">
-        <v>24551</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2547,15 +2547,15 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5">
+        <v>24367</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="5">
-        <v>24367</v>
-      </c>
       <c r="H9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>71</v>
@@ -2588,15 +2588,15 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5">
+        <v>24755</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="5">
-        <v>24755</v>
-      </c>
       <c r="H10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>78</v>
@@ -2629,11 +2629,11 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5">
+        <v>22065</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="5">
-        <v>22065</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2670,15 +2670,15 @@
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5">
+        <v>24908</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="5">
-        <v>24908</v>
-      </c>
       <c r="H12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>93</v>
@@ -2712,11 +2712,11 @@
       <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5">
+        <v>23643</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G13" s="5">
-        <v>23643</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2753,11 +2753,11 @@
       <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5">
+        <v>24120</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" s="5">
-        <v>24120</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2794,11 +2794,11 @@
       <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5">
+        <v>21065</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G15" s="5">
-        <v>21065</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2835,15 +2835,15 @@
       <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5">
+        <v>25402</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="5">
-        <v>25402</v>
-      </c>
       <c r="H16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>119</v>
@@ -2876,11 +2876,11 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5">
+        <v>25233</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G17" s="5">
-        <v>25233</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2911,11 +2911,11 @@
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5">
+        <v>24564</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G18" s="5">
-        <v>24564</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2952,15 +2952,15 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5">
+        <v>21431</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="5">
-        <v>21431</v>
-      </c>
       <c r="H19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>135</v>
@@ -2990,11 +2990,11 @@
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5">
+        <v>24258</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G20" s="5">
-        <v>24258</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3025,15 +3025,15 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5">
+        <v>24736</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="5">
-        <v>24736</v>
-      </c>
       <c r="H21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>85</v>
@@ -3066,15 +3066,15 @@
       <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5">
+        <v>23065</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="5">
-        <v>23065</v>
-      </c>
       <c r="H22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>85</v>
@@ -3104,15 +3104,15 @@
       <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5">
+        <v>21211</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="5">
-        <v>21211</v>
-      </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>156</v>
@@ -3142,15 +3142,15 @@
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5">
+        <v>22182</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="5">
-        <v>22182</v>
-      </c>
       <c r="H24" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>162</v>
@@ -3180,15 +3180,15 @@
       <c r="E25" s="4">
         <v>2</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5">
+        <v>23647</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="5">
-        <v>23647</v>
-      </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>168</v>
@@ -3218,15 +3218,15 @@
       <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5">
+        <v>22727</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="5">
-        <v>22727</v>
-      </c>
       <c r="H26" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>173</v>
@@ -3253,15 +3253,15 @@
       <c r="E27" s="4">
         <v>2</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5">
+        <v>23946</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="5">
-        <v>23946</v>
-      </c>
       <c r="H27" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>178</v>
@@ -3291,15 +3291,15 @@
       <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5">
+        <v>25336</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="5">
-        <v>25336</v>
-      </c>
       <c r="H28" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>78</v>
@@ -3332,11 +3332,11 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="5">
+        <v>24244</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G29" s="5">
-        <v>24244</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3373,11 +3373,11 @@
       <c r="E30" s="4">
         <v>2</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="5">
+        <v>21764</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G30" s="5">
-        <v>21764</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3411,11 +3411,11 @@
       <c r="E31" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="5">
+        <v>21554</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G31" s="5">
-        <v>21554</v>
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3452,15 +3452,15 @@
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5">
+        <v>25171</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="5">
-        <v>25171</v>
-      </c>
       <c r="H32" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>119</v>
@@ -3490,11 +3490,11 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="5">
+        <v>23542</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G33" s="5">
-        <v>23542</v>
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3528,15 +3528,15 @@
       <c r="E34" s="4">
         <v>2</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="5">
+        <v>25374</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="5">
-        <v>25374</v>
-      </c>
       <c r="H34" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>213</v>
@@ -3569,11 +3569,11 @@
       <c r="E35" s="4">
         <v>1</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="5">
+        <v>24432</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G35" s="5">
-        <v>24432</v>
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3607,15 +3607,15 @@
       <c r="E36" s="4">
         <v>1</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="5">
+        <v>21687</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="5">
-        <v>21687</v>
-      </c>
       <c r="H36" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>40</v>
@@ -3648,15 +3648,15 @@
       <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="5">
+        <v>23934</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="5">
-        <v>23934</v>
-      </c>
       <c r="H37" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>17</v>
@@ -3689,15 +3689,15 @@
       <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="5">
+        <v>22989</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="5">
-        <v>22989</v>
-      </c>
       <c r="H38" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>17</v>
@@ -3730,15 +3730,15 @@
       <c r="E39" s="4">
         <v>1</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="5">
+        <v>24188</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="5">
-        <v>24188</v>
-      </c>
       <c r="H39" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>48</v>
@@ -3771,15 +3771,15 @@
       <c r="E40" s="4">
         <v>1</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="5">
+        <v>24525</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="5">
-        <v>24525</v>
-      </c>
       <c r="H40" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>112</v>
@@ -3812,15 +3812,15 @@
       <c r="E41" s="4">
         <v>2</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="5">
+        <v>25408</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="5">
-        <v>25408</v>
-      </c>
       <c r="H41" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>250</v>
@@ -3847,11 +3847,11 @@
       <c r="E42" s="4">
         <v>2</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="5">
+        <v>21420</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G42" s="5">
-        <v>21420</v>
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3882,15 +3882,15 @@
       <c r="E43" s="4">
         <v>2</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="5">
+        <v>21170</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="5">
-        <v>21170</v>
-      </c>
       <c r="H43" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>168</v>
@@ -3923,11 +3923,11 @@
       <c r="E44" s="4">
         <v>1</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="5">
+        <v>24551</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G44" s="5">
-        <v>24551</v>
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3958,11 +3958,11 @@
       <c r="E45" s="4">
         <v>2</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="5">
+        <v>21653</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G45" s="5">
-        <v>21653</v>
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3996,15 +3996,15 @@
       <c r="E46" s="4">
         <v>1</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="5">
+        <v>21938</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="5">
-        <v>21938</v>
-      </c>
       <c r="H46" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>135</v>
@@ -4037,11 +4037,11 @@
       <c r="E47" s="4">
         <v>2</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="5">
+        <v>24304</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G47" s="5">
-        <v>24304</v>
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4078,11 +4078,11 @@
       <c r="E48" s="4">
         <v>2</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="5">
+        <v>24893</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G48" s="5">
-        <v>24893</v>
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4113,11 +4113,11 @@
       <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="5">
+        <v>22875</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G49" s="5">
-        <v>22875</v>
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4151,11 +4151,11 @@
       <c r="E50" s="4">
         <v>1</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="5">
+        <v>22478</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G50" s="5">
-        <v>22478</v>
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4189,15 +4189,15 @@
       <c r="E51" s="4">
         <v>1</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="5">
+        <v>23399</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="5">
-        <v>23399</v>
-      </c>
       <c r="H51" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>100</v>
@@ -4230,11 +4230,11 @@
       <c r="E52" s="4">
         <v>2</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="5">
+        <v>23252</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G52" s="5">
-        <v>23252</v>
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4268,15 +4268,15 @@
       <c r="E53" s="4">
         <v>1</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="5">
+        <v>22331</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="5">
-        <v>22331</v>
-      </c>
       <c r="H53" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>85</v>
@@ -4309,15 +4309,15 @@
       <c r="E54" s="4">
         <v>1</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="5">
+        <v>21660</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="5">
-        <v>21660</v>
-      </c>
       <c r="H54" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>17</v>
@@ -4347,11 +4347,11 @@
       <c r="E55" s="4">
         <v>1</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="5">
+        <v>23670</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G55" s="5">
-        <v>23670</v>
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4388,11 +4388,11 @@
       <c r="E56" s="4">
         <v>1</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="5">
+        <v>22002</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G56" s="5">
-        <v>22002</v>
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4423,15 +4423,15 @@
       <c r="E57" s="4">
         <v>2</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="5">
+        <v>22168</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="5">
-        <v>22168</v>
-      </c>
       <c r="H57" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>326</v>
@@ -4461,11 +4461,11 @@
       <c r="E58" s="4">
         <v>2</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="5">
+        <v>24414</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G58" s="5">
-        <v>24414</v>
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4502,11 +4502,11 @@
       <c r="E59" s="4">
         <v>2</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="5">
+        <v>21969</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G59" s="5">
-        <v>21969</v>
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4543,15 +4543,15 @@
       <c r="E60" s="4">
         <v>2</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="5">
+        <v>22939</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="5">
-        <v>22939</v>
-      </c>
       <c r="H60" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>268</v>
@@ -4581,15 +4581,15 @@
       <c r="E61" s="4">
         <v>2</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="5">
+        <v>25349</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G61" s="5">
-        <v>25349</v>
-      </c>
       <c r="H61" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>57</v>
@@ -4622,15 +4622,15 @@
       <c r="E62" s="4">
         <v>2</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="5">
+        <v>24239</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G62" s="5">
-        <v>24239</v>
-      </c>
       <c r="H62" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>350</v>
@@ -4660,11 +4660,11 @@
       <c r="E63" s="4">
         <v>1</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="5">
+        <v>22158</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G63" s="5">
-        <v>22158</v>
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4701,15 +4701,15 @@
       <c r="E64" s="4">
         <v>1</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="5">
+        <v>22799</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G64" s="5">
-        <v>22799</v>
-      </c>
       <c r="H64" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>78</v>
@@ -4739,11 +4739,11 @@
       <c r="E65" s="4">
         <v>2</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="5">
+        <v>21764</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G65" s="5">
-        <v>21764</v>
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4777,11 +4777,11 @@
       <c r="E66" s="4">
         <v>1</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="5">
+        <v>24356</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G66" s="5">
-        <v>24356</v>
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4815,11 +4815,11 @@
       <c r="E67" s="4">
         <v>2</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="5">
+        <v>23062</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G67" s="5">
-        <v>23062</v>
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4850,15 +4850,15 @@
       <c r="E68" s="4">
         <v>2</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="5">
+        <v>22847</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G68" s="5">
-        <v>22847</v>
-      </c>
       <c r="H68" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>48</v>
@@ -4891,15 +4891,15 @@
       <c r="E69" s="4">
         <v>1</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="5">
+        <v>22247</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="5">
-        <v>22247</v>
-      </c>
       <c r="H69" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>379</v>
@@ -4926,11 +4926,11 @@
       <c r="E70" s="4">
         <v>1</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="5">
+        <v>21872</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G70" s="5">
-        <v>21872</v>
       </c>
       <c r="H70" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4967,11 +4967,11 @@
       <c r="E71" s="4">
         <v>1</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="5">
+        <v>25136</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G71" s="5">
-        <v>25136</v>
       </c>
       <c r="H71" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5008,11 +5008,11 @@
       <c r="E72" s="4">
         <v>1</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="5">
+        <v>23052</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G72" s="5">
-        <v>23052</v>
       </c>
       <c r="H72" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5046,11 +5046,11 @@
       <c r="E73" s="4">
         <v>2</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="5">
+        <v>25236</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G73" s="5">
-        <v>25236</v>
       </c>
       <c r="H73" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5084,11 +5084,11 @@
       <c r="E74" s="4">
         <v>1</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="5">
+        <v>23452</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G74" s="5">
-        <v>23452</v>
       </c>
       <c r="H74" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5125,11 +5125,11 @@
       <c r="E75" s="4">
         <v>2</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="5">
+        <v>23549</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G75" s="5">
-        <v>23549</v>
       </c>
       <c r="H75" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5166,15 +5166,15 @@
       <c r="E76" s="4">
         <v>1</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="5">
+        <v>21143</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="5">
-        <v>21143</v>
-      </c>
       <c r="H76" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>410</v>
@@ -5204,11 +5204,11 @@
       <c r="E77" s="4">
         <v>2</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="5">
+        <v>24441</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G77" s="5">
-        <v>24441</v>
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5245,15 +5245,15 @@
       <c r="E78" s="4">
         <v>2</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="5">
+        <v>22162</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G78" s="5">
-        <v>22162</v>
-      </c>
       <c r="H78" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>168</v>
@@ -5286,15 +5286,15 @@
       <c r="E79" s="4">
         <v>1</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="5">
+        <v>23678</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G79" s="5">
-        <v>23678</v>
-      </c>
       <c r="H79" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>48</v>
@@ -5324,11 +5324,11 @@
       <c r="E80" s="4">
         <v>1</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="5">
+        <v>21654</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G80" s="5">
-        <v>21654</v>
       </c>
       <c r="H80" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5362,11 +5362,11 @@
       <c r="E81" s="4">
         <v>2</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="5">
+        <v>24735</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G81" s="5">
-        <v>24735</v>
       </c>
       <c r="H81" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5403,11 +5403,11 @@
       <c r="E82" s="4">
         <v>2</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="5">
+        <v>24251</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G82" s="5">
-        <v>24251</v>
       </c>
       <c r="H82" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5444,15 +5444,15 @@
       <c r="E83" s="4">
         <v>2</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="5">
+        <v>24623</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G83" s="5">
-        <v>24623</v>
-      </c>
       <c r="H83" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>213</v>
@@ -5485,15 +5485,15 @@
       <c r="E84" s="4">
         <v>2</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="5">
+        <v>21479</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G84" s="5">
-        <v>21479</v>
-      </c>
       <c r="H84" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>135</v>
@@ -5523,11 +5523,11 @@
       <c r="E85" s="4">
         <v>1</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="5">
+        <v>21826</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G85" s="5">
-        <v>21826</v>
       </c>
       <c r="H85" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5564,11 +5564,11 @@
       <c r="E86" s="4">
         <v>2</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="5">
+        <v>22424</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G86" s="5">
-        <v>22424</v>
       </c>
       <c r="H86" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5602,11 +5602,11 @@
       <c r="E87" s="4">
         <v>1</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="5">
+        <v>22297</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G87" s="5">
-        <v>22297</v>
       </c>
       <c r="H87" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5643,11 +5643,11 @@
       <c r="E88" s="4">
         <v>1</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="5">
+        <v>21122</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G88" s="5">
-        <v>21122</v>
       </c>
       <c r="H88" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5684,11 +5684,11 @@
       <c r="E89" s="4">
         <v>2</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="5">
+        <v>24811</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G89" s="5">
-        <v>24811</v>
       </c>
       <c r="H89" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5722,15 +5722,15 @@
       <c r="E90" s="4">
         <v>1</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="5">
+        <v>24045</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="5">
-        <v>24045</v>
-      </c>
       <c r="H90" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>71</v>
@@ -5760,11 +5760,11 @@
       <c r="E91" s="4">
         <v>2</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="5">
+        <v>25342</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G91" s="5">
-        <v>25342</v>
       </c>
       <c r="H91" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5801,11 +5801,11 @@
       <c r="E92" s="4">
         <v>2</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="5">
+        <v>23572</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G92" s="5">
-        <v>23572</v>
       </c>
       <c r="H92" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5839,11 +5839,11 @@
       <c r="E93" s="4">
         <v>1</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="5">
+        <v>23405</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G93" s="5">
-        <v>23405</v>
       </c>
       <c r="H93" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5877,11 +5877,11 @@
       <c r="E94" s="4">
         <v>2</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="5">
+        <v>21267</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G94" s="5">
-        <v>21267</v>
       </c>
       <c r="H94" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5915,11 +5915,11 @@
       <c r="E95" s="4">
         <v>2</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="5">
+        <v>24415</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="G95" s="5">
-        <v>24415</v>
       </c>
       <c r="H95" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5953,11 +5953,11 @@
       <c r="E96" s="4">
         <v>1</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="5">
+        <v>24670</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G96" s="5">
-        <v>24670</v>
       </c>
       <c r="H96" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5991,15 +5991,15 @@
       <c r="E97" s="4">
         <v>1</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="5">
+        <v>24154</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G97" s="5">
-        <v>24154</v>
-      </c>
       <c r="H97" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>497</v>
@@ -6029,15 +6029,15 @@
       <c r="E98" s="4">
         <v>2</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="5">
+        <v>24175</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="5">
-        <v>24175</v>
-      </c>
       <c r="H98" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>498</v>
@@ -6064,15 +6064,15 @@
       <c r="E99" s="4">
         <v>1</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="5">
+        <v>25285</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G99" s="5">
-        <v>25285</v>
-      </c>
       <c r="H99" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>100</v>
@@ -6105,11 +6105,11 @@
       <c r="E100" s="4">
         <v>1</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="5">
+        <v>21085</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G100" s="5">
-        <v>21085</v>
       </c>
       <c r="H100" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6146,15 +6146,15 @@
       <c r="E101" s="4">
         <v>1</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="5">
+        <v>22600</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="5">
-        <v>22600</v>
-      </c>
       <c r="H101" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>135</v>
@@ -6184,15 +6184,15 @@
       <c r="E102" s="4">
         <v>2</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="5">
+        <v>22021</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G102" s="5">
-        <v>22021</v>
-      </c>
       <c r="H102" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>85</v>
@@ -6225,15 +6225,15 @@
       <c r="E103" s="4">
         <v>2</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="5">
+        <v>24064</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G103" s="5">
-        <v>24064</v>
-      </c>
       <c r="H103" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>100</v>
@@ -6263,15 +6263,15 @@
       <c r="E104" s="4">
         <v>2</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="5">
+        <v>21892</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G104" s="5">
-        <v>21892</v>
-      </c>
       <c r="H104" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>112</v>
@@ -6304,11 +6304,11 @@
       <c r="E105" s="4">
         <v>2</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="5">
+        <v>24561</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G105" s="5">
-        <v>24561</v>
       </c>
       <c r="H105" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6342,11 +6342,11 @@
       <c r="E106" s="4">
         <v>2</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="5">
+        <v>23572</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G106" s="5">
-        <v>23572</v>
       </c>
       <c r="H106" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6380,15 +6380,15 @@
       <c r="E107" s="4">
         <v>1</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="5">
+        <v>22649</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G107" s="5">
-        <v>22649</v>
-      </c>
       <c r="H107" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>156</v>
@@ -6421,11 +6421,11 @@
       <c r="E108" s="4">
         <v>1</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="5">
+        <v>21692</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G108" s="5">
-        <v>21692</v>
       </c>
       <c r="H108" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6462,11 +6462,11 @@
       <c r="E109" s="4">
         <v>1</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="5">
+        <v>25098</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G109" s="5">
-        <v>25098</v>
       </c>
       <c r="H109" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6500,11 +6500,11 @@
       <c r="E110" s="4">
         <v>2</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="5">
+        <v>21246</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G110" s="5">
-        <v>21246</v>
       </c>
       <c r="H110" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6538,11 +6538,11 @@
       <c r="E111" s="4">
         <v>2</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="5">
+        <v>24683</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G111" s="5">
-        <v>24683</v>
       </c>
       <c r="H111" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6579,15 +6579,15 @@
       <c r="E112" s="4">
         <v>1</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="5">
+        <v>23943</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G112" s="5">
-        <v>23943</v>
-      </c>
       <c r="H112" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>567</v>
@@ -6617,11 +6617,11 @@
       <c r="E113" s="4">
         <v>2</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="5">
+        <v>21794</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G113" s="5">
-        <v>21794</v>
       </c>
       <c r="H113" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6655,15 +6655,15 @@
       <c r="E114" s="4">
         <v>2</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="5">
+        <v>23146</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G114" s="5">
-        <v>23146</v>
-      </c>
       <c r="H114" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>331</v>
@@ -6696,11 +6696,11 @@
       <c r="E115" s="4">
         <v>1</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="5">
+        <v>23314</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G115" s="5">
-        <v>23314</v>
       </c>
       <c r="H115" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6737,15 +6737,15 @@
       <c r="E116" s="4">
         <v>2</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="5">
+        <v>21116</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G116" s="5">
-        <v>21116</v>
-      </c>
       <c r="H116" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>85</v>
@@ -6778,15 +6778,15 @@
       <c r="E117" s="4">
         <v>2</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="5">
+        <v>22640</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G117" s="5">
-        <v>22640</v>
-      </c>
       <c r="H117" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>586</v>
@@ -6816,15 +6816,15 @@
       <c r="E118" s="4">
         <v>1</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="5">
+        <v>25155</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G118" s="5">
-        <v>25155</v>
-      </c>
       <c r="H118" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>17</v>
@@ -6857,15 +6857,15 @@
       <c r="E119" s="4">
         <v>1</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="5">
+        <v>23160</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G119" s="5">
-        <v>23160</v>
-      </c>
       <c r="H119" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>595</v>
@@ -6895,11 +6895,11 @@
       <c r="E120" s="4">
         <v>2</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="5">
+        <v>24849</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G120" s="5">
-        <v>24849</v>
       </c>
       <c r="H120" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6933,11 +6933,11 @@
       <c r="E121" s="4">
         <v>1</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="5">
+        <v>23647</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G121" s="5">
-        <v>23647</v>
       </c>
       <c r="H121" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6974,15 +6974,15 @@
       <c r="E122" s="4">
         <v>2</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="5">
+        <v>21312</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G122" s="5">
-        <v>21312</v>
-      </c>
       <c r="H122" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Online</v>
+        <v>Prescensial</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>17</v>
@@ -7015,15 +7015,15 @@
       <c r="E123" s="4">
         <v>2</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="5">
+        <v>22537</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G123" s="5">
-        <v>22537</v>
-      </c>
       <c r="H123" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Prescensial</v>
+        <v>Online</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>17</v>
